--- a/E2E/3 - E2E Technology Master 1.0.xlsx
+++ b/E2E/3 - E2E Technology Master 1.0.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Protocol" sheetId="6" r:id="rId8"/>
     <sheet name="Misc Info" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>SL#</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Neo4J</t>
+  </si>
+  <si>
+    <t>Apache</t>
   </si>
 </sst>
 </file>
@@ -2272,10 +2275,10 @@
   <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2627,9 @@
         <v>83</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="7"/>
       <c r="T13" s="5" t="s">
